--- a/output/reports/eval_sheet_haitian_creole_20251130.xlsx
+++ b/output/reports/eval_sheet_haitian_creole_20251130.xlsx
@@ -509,7 +509,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gpt-5.1</t>
+          <t>Model C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>claude-opus-4.5</t>
+          <t>Model A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gemini-3-pro</t>
+          <t>Model B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>kimi-k2</t>
+          <t>Model D</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
